--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_9.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_9.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02771401405334473</v>
+        <v>0.0005078315734863281</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001870155334472656</v>
+        <v>0.0004551410675048828</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001380205154418945</v>
+        <v>0.01259899139404297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (2, 0), (2, 2)]</t>
+          <t>[[1, 1], [0, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [2, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 2), (1, 2), (2, 2), (1, 1), (0, 0), (2, 1), (0, 1), (1, 0)]</t>
+          <t>[[2, 0], [0, 2], [1, 2], [2, 2], [1, 1], [0, 0], [2, 1], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2)]</t>
+          <t>[[2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [1, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (1, 1), (0, 1), (0, 0), (0, 2), (1, 0), (2, 1), (2, 2)]</t>
+          <t>[[2, 0], [1, 2], [1, 1], [0, 1], [0, 0], [0, 2], [1, 0], [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (2, 2), (1, 0), (1, 2), (0, 0), (0, 1), (0, 2), (1, 1)]</t>
+          <t>[[2, 0], [2, 1], [2, 2], [1, 0], [1, 2], [0, 0], [0, 1], [0, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -1654,110 +1654,120 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>38</v>
+        <v>0.9977359196221965</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.04114103317260742</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.02640771865844727</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="N168" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
